--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.7469836666667</v>
+        <v>117.057129</v>
       </c>
       <c r="H2">
-        <v>305.240951</v>
+        <v>351.171387</v>
       </c>
       <c r="I2">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="J2">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N2">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O2">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P2">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q2">
-        <v>53.81007936025944</v>
+        <v>7.812509846589</v>
       </c>
       <c r="R2">
-        <v>484.290714242335</v>
+        <v>70.312588619301</v>
       </c>
       <c r="S2">
-        <v>0.0003820868393504396</v>
+        <v>0.0001989369491307146</v>
       </c>
       <c r="T2">
-        <v>0.0003820868393504397</v>
+        <v>0.0001989369491307146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.7469836666667</v>
+        <v>117.057129</v>
       </c>
       <c r="H3">
-        <v>305.240951</v>
+        <v>351.171387</v>
       </c>
       <c r="I3">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="J3">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.377498</v>
       </c>
       <c r="O3">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P3">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q3">
-        <v>114.5500779467331</v>
+        <v>131.786739694414</v>
       </c>
       <c r="R3">
-        <v>1030.950701520598</v>
+        <v>1186.080657249726</v>
       </c>
       <c r="S3">
-        <v>0.0008133806482050639</v>
+        <v>0.003355804017595833</v>
       </c>
       <c r="T3">
-        <v>0.0008133806482050639</v>
+        <v>0.003355804017595832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.7469836666667</v>
+        <v>117.057129</v>
       </c>
       <c r="H4">
-        <v>305.240951</v>
+        <v>351.171387</v>
       </c>
       <c r="I4">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="J4">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N4">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O4">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P4">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q4">
-        <v>12563.18693264018</v>
+        <v>3716.012623729539</v>
       </c>
       <c r="R4">
-        <v>113068.6823937616</v>
+        <v>33444.11361356585</v>
       </c>
       <c r="S4">
-        <v>0.08920686318121956</v>
+        <v>0.09462416416905249</v>
       </c>
       <c r="T4">
-        <v>0.08920686318121958</v>
+        <v>0.09462416416905249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.7469836666667</v>
+        <v>117.057129</v>
       </c>
       <c r="H5">
-        <v>305.240951</v>
+        <v>351.171387</v>
       </c>
       <c r="I5">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="J5">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N5">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O5">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P5">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q5">
-        <v>10.39474317667644</v>
+        <v>9.326643810204001</v>
       </c>
       <c r="R5">
-        <v>93.552688590088</v>
+        <v>83.93979429183601</v>
       </c>
       <c r="S5">
-        <v>7.38094909625627E-05</v>
+        <v>0.0002374927010224423</v>
       </c>
       <c r="T5">
-        <v>7.38094909625627E-05</v>
+        <v>0.0002374927010224422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.7469836666667</v>
+        <v>117.057129</v>
       </c>
       <c r="H6">
-        <v>305.240951</v>
+        <v>351.171387</v>
       </c>
       <c r="I6">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="J6">
-        <v>0.1529252800511868</v>
+        <v>0.1774070466701874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N6">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O6">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P6">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q6">
-        <v>8794.841453454939</v>
+        <v>3102.064370122599</v>
       </c>
       <c r="R6">
-        <v>79153.57308109445</v>
+        <v>27918.57933110339</v>
       </c>
       <c r="S6">
-        <v>0.06244913989144918</v>
+        <v>0.07899064883338597</v>
       </c>
       <c r="T6">
-        <v>0.06244913989144919</v>
+        <v>0.07899064883338597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>505.926697</v>
       </c>
       <c r="I7">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="J7">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N7">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O7">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P7">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q7">
-        <v>89.18841206219389</v>
+        <v>11.255351228159</v>
       </c>
       <c r="R7">
-        <v>802.6957085597451</v>
+        <v>101.298161053431</v>
       </c>
       <c r="S7">
-        <v>0.0006332961942571642</v>
+        <v>0.0002866051088181609</v>
       </c>
       <c r="T7">
-        <v>0.0006332961942571645</v>
+        <v>0.0002866051088181608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>505.926697</v>
       </c>
       <c r="I8">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="J8">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.377498</v>
       </c>
       <c r="O8">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P8">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q8">
         <v>189.8629341404562</v>
@@ -948,10 +948,10 @@
         <v>1708.766407264106</v>
       </c>
       <c r="S8">
-        <v>0.001348151299496203</v>
+        <v>0.004834650274060027</v>
       </c>
       <c r="T8">
-        <v>0.001348151299496204</v>
+        <v>0.004834650274060026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>505.926697</v>
       </c>
       <c r="I9">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="J9">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N9">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O9">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P9">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q9">
-        <v>20823.06337927838</v>
+        <v>5353.596740311275</v>
       </c>
       <c r="R9">
-        <v>187407.5704135055</v>
+        <v>48182.37066280148</v>
       </c>
       <c r="S9">
-        <v>0.1478574008210495</v>
+        <v>0.1363234380893181</v>
       </c>
       <c r="T9">
-        <v>0.1478574008210495</v>
+        <v>0.1363234380893181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>505.926697</v>
       </c>
       <c r="I10">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="J10">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N10">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O10">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P10">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q10">
-        <v>17.22894016779289</v>
+        <v>13.43673850339067</v>
       </c>
       <c r="R10">
-        <v>155.060461510136</v>
+        <v>120.930646530516</v>
       </c>
       <c r="S10">
-        <v>0.0001223367698456053</v>
+        <v>0.0003421517305733475</v>
       </c>
       <c r="T10">
-        <v>0.0001223367698456054</v>
+        <v>0.0003421517305733474</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>505.926697</v>
       </c>
       <c r="I11">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="J11">
-        <v>0.2534685518788629</v>
+        <v>0.2555873413068611</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N11">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O11">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P11">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q11">
-        <v>14577.15641563814</v>
+        <v>4469.09184163547</v>
       </c>
       <c r="R11">
-        <v>131194.4077407432</v>
+        <v>40221.82657471922</v>
       </c>
       <c r="S11">
-        <v>0.1035073667942144</v>
+        <v>0.1138004961040914</v>
       </c>
       <c r="T11">
-        <v>0.1035073667942144</v>
+        <v>0.1138004961040914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>160.1869866666667</v>
+        <v>162.9464366666666</v>
       </c>
       <c r="H12">
-        <v>480.56096</v>
+        <v>488.83931</v>
       </c>
       <c r="I12">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="J12">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N12">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O12">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P12">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q12">
-        <v>84.71675674684445</v>
+        <v>10.87520812957</v>
       </c>
       <c r="R12">
-        <v>762.4508107216001</v>
+        <v>97.87687316613</v>
       </c>
       <c r="S12">
-        <v>0.0006015445100667802</v>
+        <v>0.0002769251839602856</v>
       </c>
       <c r="T12">
-        <v>0.0006015445100667803</v>
+        <v>0.0002769251839602856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>160.1869866666667</v>
+        <v>162.9464366666666</v>
       </c>
       <c r="H13">
-        <v>480.56096</v>
+        <v>488.83931</v>
       </c>
       <c r="I13">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="J13">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.377498</v>
       </c>
       <c r="O13">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P13">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q13">
-        <v>180.3437423642311</v>
+        <v>183.4504213162644</v>
       </c>
       <c r="R13">
-        <v>1623.09368127808</v>
+        <v>1651.05379184638</v>
       </c>
       <c r="S13">
-        <v>0.001280558797455875</v>
+        <v>0.004671362705460894</v>
       </c>
       <c r="T13">
-        <v>0.001280558797455875</v>
+        <v>0.004671362705460894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>160.1869866666667</v>
+        <v>162.9464366666666</v>
       </c>
       <c r="H14">
-        <v>480.56096</v>
+        <v>488.83931</v>
       </c>
       <c r="I14">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="J14">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N14">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O14">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P14">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q14">
-        <v>19779.05373846454</v>
+        <v>5172.782049396402</v>
       </c>
       <c r="R14">
-        <v>178011.4836461808</v>
+        <v>46555.03844456762</v>
       </c>
       <c r="S14">
-        <v>0.1404442479572655</v>
+        <v>0.1317191913523591</v>
       </c>
       <c r="T14">
-        <v>0.1404442479572655</v>
+        <v>0.1317191913523591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>160.1869866666667</v>
+        <v>162.9464366666666</v>
       </c>
       <c r="H15">
-        <v>480.56096</v>
+        <v>488.83931</v>
       </c>
       <c r="I15">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="J15">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N15">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O15">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P15">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q15">
-        <v>16.36512972316445</v>
+        <v>12.98292028785333</v>
       </c>
       <c r="R15">
-        <v>147.28616750848</v>
+        <v>116.84628259068</v>
       </c>
       <c r="S15">
-        <v>0.0001162031494066485</v>
+        <v>0.0003305957500969376</v>
       </c>
       <c r="T15">
-        <v>0.0001162031494066485</v>
+        <v>0.0003305957500969376</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>160.1869866666667</v>
+        <v>162.9464366666666</v>
       </c>
       <c r="H16">
-        <v>480.56096</v>
+        <v>488.83931</v>
       </c>
       <c r="I16">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="J16">
-        <v>0.2407603539069933</v>
+        <v>0.2469550239393286</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N16">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O16">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P16">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q16">
-        <v>13846.29892572999</v>
+        <v>4318.150801580869</v>
       </c>
       <c r="R16">
-        <v>124616.6903315699</v>
+        <v>38863.35721422783</v>
       </c>
       <c r="S16">
-        <v>0.09831779949279845</v>
+        <v>0.1099569489474514</v>
       </c>
       <c r="T16">
-        <v>0.09831779949279847</v>
+        <v>0.1099569489474514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>90.42962366666666</v>
+        <v>80.88728066666667</v>
       </c>
       <c r="H17">
-        <v>271.288871</v>
+        <v>242.661842</v>
       </c>
       <c r="I17">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="J17">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N17">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O17">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P17">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q17">
-        <v>47.82476148839277</v>
+        <v>5.398497998974001</v>
       </c>
       <c r="R17">
-        <v>430.422853395535</v>
+        <v>48.586481990766</v>
       </c>
       <c r="S17">
-        <v>0.0003395871587077421</v>
+        <v>0.0001374667991328107</v>
       </c>
       <c r="T17">
-        <v>0.0003395871587077422</v>
+        <v>0.0001374667991328106</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>90.42962366666666</v>
+        <v>80.88728066666667</v>
       </c>
       <c r="H18">
-        <v>271.288871</v>
+        <v>242.661842</v>
       </c>
       <c r="I18">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="J18">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.377498</v>
       </c>
       <c r="O18">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P18">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q18">
-        <v>101.8086243583064</v>
+        <v>91.06554289236846</v>
       </c>
       <c r="R18">
-        <v>916.2776192247579</v>
+        <v>819.589886031316</v>
       </c>
       <c r="S18">
-        <v>0.0007229079749027513</v>
+        <v>0.002318883640428271</v>
       </c>
       <c r="T18">
-        <v>0.0007229079749027514</v>
+        <v>0.002318883640428271</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>90.42962366666666</v>
+        <v>80.88728066666667</v>
       </c>
       <c r="H19">
-        <v>271.288871</v>
+        <v>242.661842</v>
       </c>
       <c r="I19">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="J19">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N19">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O19">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P19">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q19">
-        <v>11165.77833987258</v>
+        <v>2567.790262962007</v>
       </c>
       <c r="R19">
-        <v>100492.0050588532</v>
+        <v>23110.11236665807</v>
       </c>
       <c r="S19">
-        <v>0.07928434608331605</v>
+        <v>0.06538594778786086</v>
       </c>
       <c r="T19">
-        <v>0.0792843460833161</v>
+        <v>0.06538594778786086</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>90.42962366666666</v>
+        <v>80.88728066666667</v>
       </c>
       <c r="H20">
-        <v>271.288871</v>
+        <v>242.661842</v>
       </c>
       <c r="I20">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="J20">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N20">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O20">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P20">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q20">
-        <v>9.238531499449778</v>
+        <v>6.444774974397334</v>
       </c>
       <c r="R20">
-        <v>83.14678349504798</v>
+        <v>58.00297476957601</v>
       </c>
       <c r="S20">
-        <v>6.559963008475339E-05</v>
+        <v>0.0001641090886817072</v>
       </c>
       <c r="T20">
-        <v>6.559963008475341E-05</v>
+        <v>0.0001641090886817072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>90.42962366666666</v>
+        <v>80.88728066666667</v>
       </c>
       <c r="H21">
-        <v>271.288871</v>
+        <v>242.661842</v>
       </c>
       <c r="I21">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="J21">
-        <v>0.1359153365121225</v>
+        <v>0.1225894885586668</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N21">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O21">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P21">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q21">
-        <v>7816.587521154031</v>
+        <v>2143.547800084634</v>
       </c>
       <c r="R21">
-        <v>70349.28769038628</v>
+        <v>19291.93020076171</v>
       </c>
       <c r="S21">
-        <v>0.05550289566511116</v>
+        <v>0.05458308124256318</v>
       </c>
       <c r="T21">
-        <v>0.05550289566511118</v>
+        <v>0.05458308124256317</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>144.332067</v>
+        <v>130.2892406666667</v>
       </c>
       <c r="H22">
-        <v>432.9962009999999</v>
+        <v>390.867722</v>
       </c>
       <c r="I22">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="J22">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.5288616666666667</v>
+        <v>0.06674100000000001</v>
       </c>
       <c r="N22">
-        <v>1.586585</v>
+        <v>0.200223</v>
       </c>
       <c r="O22">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="P22">
-        <v>0.002498519794912577</v>
+        <v>0.001121358778383549</v>
       </c>
       <c r="Q22">
-        <v>76.33169750706499</v>
+        <v>8.695634211334001</v>
       </c>
       <c r="R22">
-        <v>686.985277563585</v>
+        <v>78.260707902006</v>
       </c>
       <c r="S22">
-        <v>0.0005420050925304502</v>
+        <v>0.0002214247373415771</v>
       </c>
       <c r="T22">
-        <v>0.0005420050925304505</v>
+        <v>0.000221424737341577</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>144.332067</v>
+        <v>130.2892406666667</v>
       </c>
       <c r="H23">
-        <v>432.9962009999999</v>
+        <v>390.867722</v>
       </c>
       <c r="I23">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="J23">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.377498</v>
       </c>
       <c r="O23">
-        <v>0.005318810911660981</v>
+        <v>0.0189158439903152</v>
       </c>
       <c r="P23">
-        <v>0.005318810911660981</v>
+        <v>0.01891584399031519</v>
       </c>
       <c r="Q23">
-        <v>162.493755876122</v>
+        <v>146.6838832577285</v>
       </c>
       <c r="R23">
-        <v>1462.443802885098</v>
+        <v>1320.154949319556</v>
       </c>
       <c r="S23">
-        <v>0.001153812191601087</v>
+        <v>0.003735143352770171</v>
       </c>
       <c r="T23">
-        <v>0.001153812191601087</v>
+        <v>0.00373514335277017</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>144.332067</v>
+        <v>130.2892406666667</v>
       </c>
       <c r="H24">
-        <v>432.9962009999999</v>
+        <v>390.867722</v>
       </c>
       <c r="I24">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="J24">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>123.474785</v>
+        <v>31.745291</v>
       </c>
       <c r="N24">
-        <v>370.424355</v>
+        <v>95.235873</v>
       </c>
       <c r="O24">
-        <v>0.5833362747569298</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="P24">
-        <v>0.58333627475693</v>
+        <v>0.5333731999099544</v>
       </c>
       <c r="Q24">
-        <v>17821.37094143059</v>
+        <v>4136.069859132367</v>
       </c>
       <c r="R24">
-        <v>160392.3384728754</v>
+        <v>37224.6287321913</v>
       </c>
       <c r="S24">
-        <v>0.1265434167140792</v>
+        <v>0.1053204585113638</v>
       </c>
       <c r="T24">
-        <v>0.1265434167140793</v>
+        <v>0.1053204585113638</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>144.332067</v>
+        <v>130.2892406666667</v>
       </c>
       <c r="H25">
-        <v>432.9962009999999</v>
+        <v>390.867722</v>
       </c>
       <c r="I25">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="J25">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.1021626666666667</v>
+        <v>0.07967600000000001</v>
       </c>
       <c r="N25">
-        <v>0.306488</v>
+        <v>0.239028</v>
       </c>
       <c r="O25">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="P25">
-        <v>0.0004826506836401238</v>
+        <v>0.001338688093173426</v>
       </c>
       <c r="Q25">
-        <v>14.745348850232</v>
+        <v>10.38092553935734</v>
       </c>
       <c r="R25">
-        <v>132.708139652088</v>
+        <v>93.42832985421602</v>
       </c>
       <c r="S25">
-        <v>0.0001047016433405539</v>
+        <v>0.0002643388227989916</v>
       </c>
       <c r="T25">
-        <v>0.0001047016433405539</v>
+        <v>0.0002643388227989915</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>144.332067</v>
+        <v>130.2892406666667</v>
       </c>
       <c r="H26">
-        <v>432.9962009999999</v>
+        <v>390.867722</v>
       </c>
       <c r="I26">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="J26">
-        <v>0.2169304776508345</v>
+        <v>0.1974610995249561</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.43835066666666</v>
+        <v>26.500431</v>
       </c>
       <c r="N26">
-        <v>259.315052</v>
+        <v>79.501293</v>
       </c>
       <c r="O26">
-        <v>0.4083637438528563</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="P26">
-        <v>0.4083637438528564</v>
+        <v>0.4452509092281735</v>
       </c>
       <c r="Q26">
-        <v>12475.82581979083</v>
+        <v>3452.721032329394</v>
       </c>
       <c r="R26">
-        <v>112282.4323781174</v>
+        <v>31074.48929096455</v>
       </c>
       <c r="S26">
-        <v>0.08858654200928315</v>
+        <v>0.08791973410068155</v>
       </c>
       <c r="T26">
-        <v>0.08858654200928319</v>
+        <v>0.08791973410068153</v>
       </c>
     </row>
   </sheetData>
